--- a/natmiOut/OldD7/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H2">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I2">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J2">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.7980653358573</v>
+        <v>34.53682066666666</v>
       </c>
       <c r="N2">
-        <v>32.7980653358573</v>
+        <v>103.610462</v>
       </c>
       <c r="O2">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583512</v>
       </c>
       <c r="P2">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583513</v>
       </c>
       <c r="Q2">
-        <v>775.3127612951321</v>
+        <v>846.3344031850854</v>
       </c>
       <c r="R2">
-        <v>775.3127612951321</v>
+        <v>7617.009628665769</v>
       </c>
       <c r="S2">
-        <v>0.01538535027513733</v>
+        <v>0.01358634834816138</v>
       </c>
       <c r="T2">
-        <v>0.01538535027513733</v>
+        <v>0.01358634834816138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H3">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I3">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J3">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.7062873838009</v>
+        <v>47.750315</v>
       </c>
       <c r="N3">
-        <v>47.7062873838009</v>
+        <v>143.250945</v>
       </c>
       <c r="O3">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="P3">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="Q3">
-        <v>1127.727901750245</v>
+        <v>1170.134759579342</v>
       </c>
       <c r="R3">
-        <v>1127.727901750245</v>
+        <v>10531.21283621407</v>
       </c>
       <c r="S3">
-        <v>0.0223786962496139</v>
+        <v>0.01878436986385899</v>
       </c>
       <c r="T3">
-        <v>0.0223786962496139</v>
+        <v>0.01878436986385899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H4">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I4">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J4">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.7296841237288</v>
+        <v>28.69151433333333</v>
       </c>
       <c r="N4">
-        <v>25.7296841237288</v>
+        <v>86.07454300000001</v>
       </c>
       <c r="O4">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="P4">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="Q4">
-        <v>608.2234497963038</v>
+        <v>703.0935445431561</v>
       </c>
       <c r="R4">
-        <v>608.2234497963038</v>
+        <v>6327.841900888405</v>
       </c>
       <c r="S4">
-        <v>0.01206962052970312</v>
+        <v>0.01128687878166971</v>
       </c>
       <c r="T4">
-        <v>0.01206962052970312</v>
+        <v>0.01128687878166971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H5">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I5">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J5">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.8121109959232</v>
+        <v>12.228925</v>
       </c>
       <c r="N5">
-        <v>10.8121109959232</v>
+        <v>36.686775</v>
       </c>
       <c r="O5">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="P5">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="Q5">
-        <v>255.5872593653872</v>
+        <v>299.6732108424584</v>
       </c>
       <c r="R5">
-        <v>255.5872593653872</v>
+        <v>2697.058897582125</v>
       </c>
       <c r="S5">
-        <v>0.005071888027007438</v>
+        <v>0.004810704395089159</v>
       </c>
       <c r="T5">
-        <v>0.005071888027007438</v>
+        <v>0.004810704395089159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H6">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I6">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J6">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.7980653358573</v>
+        <v>34.53682066666666</v>
       </c>
       <c r="N6">
-        <v>32.7980653358573</v>
+        <v>103.610462</v>
       </c>
       <c r="O6">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583512</v>
       </c>
       <c r="P6">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583513</v>
       </c>
       <c r="Q6">
-        <v>3610.875339212108</v>
+        <v>3805.891925409211</v>
       </c>
       <c r="R6">
-        <v>3610.875339212108</v>
+        <v>34253.0273286829</v>
       </c>
       <c r="S6">
-        <v>0.07165441440797604</v>
+        <v>0.06109662242190109</v>
       </c>
       <c r="T6">
-        <v>0.07165441440797604</v>
+        <v>0.0610966224219011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H7">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I7">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J7">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.7062873838009</v>
+        <v>47.750315</v>
       </c>
       <c r="N7">
-        <v>47.7062873838009</v>
+        <v>143.250945</v>
       </c>
       <c r="O7">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="P7">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="Q7">
-        <v>5252.183471053801</v>
+        <v>5261.993860067327</v>
       </c>
       <c r="R7">
-        <v>5252.183471053801</v>
+        <v>47357.94474060594</v>
       </c>
       <c r="S7">
-        <v>0.1042246257838768</v>
+        <v>0.0844716713862884</v>
       </c>
       <c r="T7">
-        <v>0.1042246257838768</v>
+        <v>0.0844716713862884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H8">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I8">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J8">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.7296841237288</v>
+        <v>28.69151433333333</v>
       </c>
       <c r="N8">
-        <v>25.7296841237288</v>
+        <v>86.07454300000001</v>
       </c>
       <c r="O8">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="P8">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="Q8">
-        <v>2832.687871577506</v>
+        <v>3161.750289145395</v>
       </c>
       <c r="R8">
-        <v>2832.687871577506</v>
+        <v>28455.75260230856</v>
       </c>
       <c r="S8">
-        <v>0.05621201829768824</v>
+        <v>0.05075610852703939</v>
       </c>
       <c r="T8">
-        <v>0.05621201829768824</v>
+        <v>0.05075610852703939</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H9">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I9">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J9">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.8121109959232</v>
+        <v>12.228925</v>
       </c>
       <c r="N9">
-        <v>10.8121109959232</v>
+        <v>36.686775</v>
       </c>
       <c r="O9">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="P9">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="Q9">
-        <v>1190.350240485691</v>
+        <v>1347.604267432034</v>
       </c>
       <c r="R9">
-        <v>1190.350240485691</v>
+        <v>12128.4384068883</v>
       </c>
       <c r="S9">
-        <v>0.02362137748045512</v>
+        <v>0.02163331768612557</v>
       </c>
       <c r="T9">
-        <v>0.02362137748045512</v>
+        <v>0.02163331768612557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H10">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I10">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J10">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.7980653358573</v>
+        <v>34.53682066666666</v>
       </c>
       <c r="N10">
-        <v>32.7980653358573</v>
+        <v>103.610462</v>
       </c>
       <c r="O10">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583512</v>
       </c>
       <c r="P10">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583513</v>
       </c>
       <c r="Q10">
-        <v>9263.163637198142</v>
+        <v>12147.29825507873</v>
       </c>
       <c r="R10">
-        <v>9263.163637198142</v>
+        <v>109325.6842957086</v>
       </c>
       <c r="S10">
-        <v>0.1838187430013908</v>
+        <v>0.1950026194863549</v>
       </c>
       <c r="T10">
-        <v>0.1838187430013908</v>
+        <v>0.195002619486355</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H11">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I11">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J11">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.7062873838009</v>
+        <v>47.750315</v>
       </c>
       <c r="N11">
-        <v>47.7062873838009</v>
+        <v>143.250945</v>
       </c>
       <c r="O11">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="P11">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="Q11">
-        <v>13473.69553765169</v>
+        <v>16794.75142420347</v>
       </c>
       <c r="R11">
-        <v>13473.69553765169</v>
+        <v>151152.7628178313</v>
       </c>
       <c r="S11">
-        <v>0.2673727761181731</v>
+        <v>0.2696089659256202</v>
       </c>
       <c r="T11">
-        <v>0.2673727761181731</v>
+        <v>0.2696089659256203</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H12">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I12">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J12">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.7296841237288</v>
+        <v>28.69151433333333</v>
       </c>
       <c r="N12">
-        <v>25.7296841237288</v>
+        <v>86.07454300000001</v>
       </c>
       <c r="O12">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="P12">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="Q12">
-        <v>7266.839428816848</v>
+        <v>10091.38580996386</v>
       </c>
       <c r="R12">
-        <v>7266.839428816848</v>
+        <v>90822.47228967473</v>
       </c>
       <c r="S12">
-        <v>0.1442035725282832</v>
+        <v>0.1619987116367737</v>
       </c>
       <c r="T12">
-        <v>0.1442035725282832</v>
+        <v>0.1619987116367737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H13">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I13">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J13">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8121109959232</v>
+        <v>12.228925</v>
       </c>
       <c r="N13">
-        <v>10.8121109959232</v>
+        <v>36.686775</v>
       </c>
       <c r="O13">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="P13">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="Q13">
-        <v>3053.666501154559</v>
+        <v>4301.160223973967</v>
       </c>
       <c r="R13">
-        <v>3053.666501154559</v>
+        <v>38710.4420157657</v>
       </c>
       <c r="S13">
-        <v>0.06059713071823382</v>
+        <v>0.06904724761777939</v>
       </c>
       <c r="T13">
-        <v>0.06059713071823382</v>
+        <v>0.0690472476177794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H14">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I14">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J14">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.7980653358573</v>
+        <v>34.53682066666666</v>
       </c>
       <c r="N14">
-        <v>32.7980653358573</v>
+        <v>103.610462</v>
       </c>
       <c r="O14">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583512</v>
       </c>
       <c r="P14">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583513</v>
       </c>
       <c r="Q14">
-        <v>471.4919573419183</v>
+        <v>662.0818464012456</v>
       </c>
       <c r="R14">
-        <v>471.4919573419183</v>
+        <v>5958.73661761121</v>
       </c>
       <c r="S14">
-        <v>0.009356313061967225</v>
+        <v>0.0106285111019338</v>
       </c>
       <c r="T14">
-        <v>0.009356313061967225</v>
+        <v>0.0106285111019338</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H15">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I15">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J15">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.7062873838009</v>
+        <v>47.750315</v>
       </c>
       <c r="N15">
-        <v>47.7062873838009</v>
+        <v>143.250945</v>
       </c>
       <c r="O15">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="P15">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="Q15">
-        <v>685.8066348051686</v>
+        <v>915.3887390669418</v>
       </c>
       <c r="R15">
-        <v>685.8066348051686</v>
+        <v>8238.498651602475</v>
       </c>
       <c r="S15">
-        <v>0.01360918563995389</v>
+        <v>0.01469488920235689</v>
       </c>
       <c r="T15">
-        <v>0.01360918563995389</v>
+        <v>0.01469488920235689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H16">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I16">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J16">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.7296841237288</v>
+        <v>28.69151433333333</v>
       </c>
       <c r="N16">
-        <v>25.7296841237288</v>
+        <v>86.07454300000001</v>
       </c>
       <c r="O16">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="P16">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="Q16">
-        <v>369.8797171436598</v>
+        <v>550.0254632353962</v>
       </c>
       <c r="R16">
-        <v>369.8797171436598</v>
+        <v>4950.229169118566</v>
       </c>
       <c r="S16">
-        <v>0.007339914021817163</v>
+        <v>0.008829651158870215</v>
       </c>
       <c r="T16">
-        <v>0.007339914021817163</v>
+        <v>0.008829651158870215</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H17">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I17">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J17">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.8121109959232</v>
+        <v>12.228925</v>
       </c>
       <c r="N17">
-        <v>10.8121109959232</v>
+        <v>36.686775</v>
       </c>
       <c r="O17">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="P17">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="Q17">
-        <v>155.430612271285</v>
+        <v>234.4323851244584</v>
       </c>
       <c r="R17">
-        <v>155.430612271285</v>
+        <v>2109.891466120125</v>
       </c>
       <c r="S17">
-        <v>0.003084373858722648</v>
+        <v>0.003763382460177115</v>
       </c>
       <c r="T17">
-        <v>0.003084373858722648</v>
+        <v>0.003763382460177115</v>
       </c>
     </row>
   </sheetData>
